--- a/Code/Results/Cases/Case_4_122/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_122/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.489242252606573</v>
+        <v>1.399676619293871</v>
       </c>
       <c r="C2">
-        <v>1.083008224687319</v>
+        <v>0.4075566414707055</v>
       </c>
       <c r="D2">
-        <v>0.5605518552380886</v>
+        <v>0.6541401328808547</v>
       </c>
       <c r="E2">
-        <v>0.2507462598338464</v>
+        <v>0.2669736999609782</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007934765025778116</v>
+        <v>0.002461768424108221</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2316569260547432</v>
+        <v>0.6363252255562202</v>
       </c>
       <c r="J2">
-        <v>0.1489126349230006</v>
+        <v>0.1390942464946505</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.114620664763748</v>
+        <v>3.729941506039637</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.030469183246055</v>
+        <v>1.26052660375268</v>
       </c>
       <c r="C3">
-        <v>0.9403082030070493</v>
+        <v>0.3646095372368734</v>
       </c>
       <c r="D3">
-        <v>0.5040904767678001</v>
+        <v>0.6438330498335176</v>
       </c>
       <c r="E3">
-        <v>0.2241919530577974</v>
+        <v>0.2618987202113203</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007992983521333401</v>
+        <v>0.002465506629911782</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2412592921199419</v>
+        <v>0.6480131072965918</v>
       </c>
       <c r="J3">
-        <v>0.13216468054231</v>
+        <v>0.1357181705338419</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.007722878118784</v>
+        <v>3.751147857941021</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.74975865019627</v>
+        <v>1.175086224670792</v>
       </c>
       <c r="C4">
-        <v>0.8530428147730049</v>
+        <v>0.3382288133309714</v>
       </c>
       <c r="D4">
-        <v>0.4702417676532207</v>
+        <v>0.6378521179113932</v>
       </c>
       <c r="E4">
-        <v>0.2082637192348784</v>
+        <v>0.2589310510746614</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008029770975114421</v>
+        <v>0.002467922622481407</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2484753156981192</v>
+        <v>0.6557530636660367</v>
       </c>
       <c r="J4">
-        <v>0.1221121286553526</v>
+        <v>0.1337271187256519</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.949693715577268</v>
+        <v>3.767268228403168</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.635552028808718</v>
+        <v>1.140269798261158</v>
       </c>
       <c r="C5">
-        <v>0.8175492056797964</v>
+        <v>0.3274760849561176</v>
       </c>
       <c r="D5">
-        <v>0.4566359106822517</v>
+        <v>0.6355022051663468</v>
       </c>
       <c r="E5">
-        <v>0.2018586742335913</v>
+        <v>0.257758965872533</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000804503210262986</v>
+        <v>0.00246893761199455</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2517285995927914</v>
+        <v>0.6590484421063927</v>
       </c>
       <c r="J5">
-        <v>0.1180679322947356</v>
+        <v>0.1329362869147914</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.927825628994299</v>
+        <v>3.774614431604164</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.616597604172171</v>
+        <v>1.134488680230163</v>
       </c>
       <c r="C6">
-        <v>0.8116590265400987</v>
+        <v>0.3256904716027407</v>
       </c>
       <c r="D6">
-        <v>0.4543875025690909</v>
+        <v>0.6351172790505757</v>
       </c>
       <c r="E6">
-        <v>0.2008000610973255</v>
+        <v>0.2575665912613374</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008047582734520977</v>
+        <v>0.002469107992296347</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2522871509849693</v>
+        <v>0.6596041578877738</v>
       </c>
       <c r="J6">
-        <v>0.1173993954974364</v>
+        <v>0.1328062089088036</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.92429817688091</v>
+        <v>3.775881123207455</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.748217746826867</v>
+        <v>1.174616671011734</v>
       </c>
       <c r="C7">
-        <v>0.8525638878720088</v>
+        <v>0.3380838073251766</v>
       </c>
       <c r="D7">
-        <v>0.4700575371080049</v>
+        <v>0.6378200724977887</v>
       </c>
       <c r="E7">
-        <v>0.2081770021410492</v>
+        <v>0.2589150931068147</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008029975688481612</v>
+        <v>0.002467936187712909</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2485179490892584</v>
+        <v>0.6557969348101835</v>
       </c>
       <c r="J7">
-        <v>0.1220573827265241</v>
+        <v>0.133716370198286</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.949391760726456</v>
+        <v>3.76736415893518</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.33081618466673</v>
+        <v>1.351698986463305</v>
       </c>
       <c r="C8">
-        <v>1.033718790523835</v>
+        <v>0.3927509953437607</v>
       </c>
       <c r="D8">
-        <v>0.5409027073202708</v>
+        <v>0.6505140546986183</v>
       </c>
       <c r="E8">
-        <v>0.2415067765362053</v>
+        <v>0.2651930164138321</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007954627765830765</v>
+        <v>0.002463032360705102</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2346818443485894</v>
+        <v>0.6402379873128723</v>
       </c>
       <c r="J8">
-        <v>0.1430864677189021</v>
+        <v>0.1379131514769867</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.076100430601713</v>
+        <v>3.7366086894001</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.484090237766281</v>
+        <v>1.698889374491898</v>
       </c>
       <c r="C9">
-        <v>1.392815888310906</v>
+        <v>0.499853644865027</v>
       </c>
       <c r="D9">
-        <v>0.6872187598188191</v>
+        <v>0.6781702113357539</v>
       </c>
       <c r="E9">
-        <v>0.3102829108896046</v>
+        <v>0.2786846683797251</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007814733144745852</v>
+        <v>0.002454369382985632</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2189593702030947</v>
+        <v>0.6142172968937807</v>
       </c>
       <c r="J9">
-        <v>0.1864375238909091</v>
+        <v>0.1467955084937103</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.39144268375037</v>
+        <v>3.701002531436671</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.342699806931307</v>
+        <v>1.953883920975272</v>
       </c>
       <c r="C10">
-        <v>1.660626009913528</v>
+        <v>0.5784735408537358</v>
       </c>
       <c r="D10">
-        <v>0.8005862295690065</v>
+        <v>0.7001836413139699</v>
       </c>
       <c r="E10">
-        <v>0.3635560381753677</v>
+        <v>0.2893227543046351</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007716142653535831</v>
+        <v>0.002448579685808364</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2157783930499697</v>
+        <v>0.5978629068475456</v>
       </c>
       <c r="J10">
-        <v>0.2200080791261456</v>
+        <v>0.1537240103233302</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.673782371552079</v>
+        <v>3.690062822983265</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.736934902531573</v>
+        <v>2.069861449971143</v>
       </c>
       <c r="C11">
-        <v>1.783733821290127</v>
+        <v>0.6142239390795794</v>
       </c>
       <c r="D11">
-        <v>0.853774043218948</v>
+        <v>0.7105684295805759</v>
       </c>
       <c r="E11">
-        <v>0.3885516647235647</v>
+        <v>0.2943212945246501</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007672053073643491</v>
+        <v>0.002446069327572506</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2164991203078017</v>
+        <v>0.5910283331313693</v>
       </c>
       <c r="J11">
-        <v>0.2357617652209996</v>
+        <v>0.1569645082764879</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.815683030308691</v>
+        <v>3.68842568505039</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.886854453617332</v>
+        <v>2.113774977440073</v>
       </c>
       <c r="C12">
-        <v>1.83057342094844</v>
+        <v>0.627759394426846</v>
       </c>
       <c r="D12">
-        <v>0.8741788486595397</v>
+        <v>0.7145543272207533</v>
       </c>
       <c r="E12">
-        <v>0.3981416593273295</v>
+        <v>0.2962370936087311</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007655453189577741</v>
+        <v>0.002445136364661621</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2171164981507303</v>
+        <v>0.5885277410818475</v>
       </c>
       <c r="J12">
-        <v>0.2418066915692521</v>
+        <v>0.1582044268700287</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.871582420757193</v>
+        <v>3.688288700299296</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.854536703956967</v>
+        <v>2.104317646272079</v>
       </c>
       <c r="C13">
-        <v>1.820475192875676</v>
+        <v>0.6248444069995571</v>
       </c>
       <c r="D13">
-        <v>0.8697720452729243</v>
+        <v>0.7136935162746738</v>
       </c>
       <c r="E13">
-        <v>0.3960704771847858</v>
+        <v>0.2958234697861144</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007659024233659391</v>
+        <v>0.002445336511143426</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2169676577644886</v>
+        <v>0.5890623882384531</v>
       </c>
       <c r="J13">
-        <v>0.2405011087530795</v>
+        <v>0.1579368174321019</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.859443312261789</v>
+        <v>3.688296678358313</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.749255572681136</v>
+        <v>2.07347434479874</v>
       </c>
       <c r="C14">
-        <v>1.787582679037314</v>
+        <v>0.6153375604117741</v>
       </c>
       <c r="D14">
-        <v>0.8554472821855938</v>
+        <v>0.7108952809753362</v>
       </c>
       <c r="E14">
-        <v>0.3893380474683781</v>
+        <v>0.2944784479332228</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007670685549752396</v>
+        <v>0.002445992218869653</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2165428095068442</v>
+        <v>0.5908208511816326</v>
       </c>
       <c r="J14">
-        <v>0.2362574336042087</v>
+        <v>0.1570662600047115</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.820237127675597</v>
+        <v>3.688404720056269</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.684853401221346</v>
+        <v>2.054581278374314</v>
       </c>
       <c r="C15">
-        <v>1.767465066675754</v>
+        <v>0.6095140121768736</v>
       </c>
       <c r="D15">
-        <v>0.8467082820897929</v>
+        <v>0.7091882384500821</v>
       </c>
       <c r="E15">
-        <v>0.3852309572760646</v>
+        <v>0.2936575752710908</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007677840511004133</v>
+        <v>0.002446396155413798</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2163284643693011</v>
+        <v>0.5919093720213624</v>
       </c>
       <c r="J15">
-        <v>0.2336687084199838</v>
+        <v>0.1565346887611128</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.796511309472294</v>
+        <v>3.688533877039362</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.317017905885677</v>
+        <v>1.946303956193674</v>
       </c>
       <c r="C16">
-        <v>1.652609475768088</v>
+        <v>0.5761368479782618</v>
       </c>
       <c r="D16">
-        <v>0.7971454090864825</v>
+        <v>0.6995124392092578</v>
       </c>
       <c r="E16">
-        <v>0.3619391004255732</v>
+        <v>0.288999297373401</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007719038185655669</v>
+        <v>0.002448746219020624</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2157776360707935</v>
+        <v>0.5983217813445911</v>
       </c>
       <c r="J16">
-        <v>0.2189890738486184</v>
+        <v>0.1535140258216074</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.664798759364942</v>
+        <v>3.690237246899756</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.09236980402062</v>
+        <v>1.879872815707529</v>
       </c>
       <c r="C17">
-        <v>1.582502369973326</v>
+        <v>0.5556571143546876</v>
       </c>
       <c r="D17">
-        <v>0.7671754578767036</v>
+        <v>0.6936716738712789</v>
       </c>
       <c r="E17">
-        <v>0.347855643430556</v>
+        <v>0.2861824206812287</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007744497099960367</v>
+        <v>0.002450219449664941</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2160172067409896</v>
+        <v>0.6024109258823209</v>
       </c>
       <c r="J17">
-        <v>0.2101139009276096</v>
+        <v>0.1516837038094678</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.587601044138722</v>
+        <v>3.692139470671805</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.963494648585538</v>
+        <v>1.84166152293551</v>
       </c>
       <c r="C18">
-        <v>1.542296603673094</v>
+        <v>0.5438764014990056</v>
       </c>
       <c r="D18">
-        <v>0.75008762072531</v>
+        <v>0.6903471131984702</v>
       </c>
       <c r="E18">
-        <v>0.3398258800517269</v>
+        <v>0.2845772104586501</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007759212775813722</v>
+        <v>0.00245107843351855</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2163568975344106</v>
+        <v>0.6048198206371076</v>
       </c>
       <c r="J18">
-        <v>0.2050538720548047</v>
+        <v>0.150639295117827</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.544451143092857</v>
+        <v>3.693547732857922</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.919914458876747</v>
+        <v>1.828723567777274</v>
       </c>
       <c r="C19">
-        <v>1.528702812741756</v>
+        <v>0.5398874417343222</v>
       </c>
       <c r="D19">
-        <v>0.7443268482650183</v>
+        <v>0.689227464375989</v>
       </c>
       <c r="E19">
-        <v>0.337118839784786</v>
+        <v>0.2840362852163665</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000776420806883584</v>
+        <v>0.002451371269509389</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2165056425294232</v>
+        <v>0.6056451931547713</v>
       </c>
       <c r="J19">
-        <v>0.2033480290229619</v>
+        <v>0.1502871076017556</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.530049798977359</v>
+        <v>3.69407841835627</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.116248415629059</v>
+        <v>1.886944728419166</v>
       </c>
       <c r="C20">
-        <v>1.589952922071291</v>
+        <v>0.557837355686388</v>
       </c>
       <c r="D20">
-        <v>0.7703500605124418</v>
+        <v>0.6942898213881392</v>
       </c>
       <c r="E20">
-        <v>0.3493474324433521</v>
+        <v>0.2864807308942474</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007741779556545705</v>
+        <v>0.002450061419689365</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2159705819275501</v>
+        <v>0.6019697341358992</v>
       </c>
       <c r="J20">
-        <v>0.2110539791832764</v>
+        <v>0.1518776807023841</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.595687694059194</v>
+        <v>3.691904441992079</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.780161156061638</v>
+        <v>2.082533909237554</v>
       </c>
       <c r="C21">
-        <v>1.797237682851687</v>
+        <v>0.618130021226591</v>
       </c>
       <c r="D21">
-        <v>0.8596473888429443</v>
+        <v>0.7117157404384784</v>
       </c>
       <c r="E21">
-        <v>0.3913120119362858</v>
+        <v>0.2948728897957693</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007667257849830121</v>
+        <v>0.002445799143237719</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.216657971776641</v>
+        <v>0.5903019689511027</v>
       </c>
       <c r="J21">
-        <v>0.2375016653664517</v>
+        <v>0.1573216156240989</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.831692243473668</v>
+        <v>3.688359856018621</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.21780376722694</v>
+        <v>2.210334920035336</v>
       </c>
       <c r="C22">
-        <v>1.934020745355554</v>
+        <v>0.657520333809714</v>
       </c>
       <c r="D22">
-        <v>0.9195625776755492</v>
+        <v>0.7234159064425398</v>
       </c>
       <c r="E22">
-        <v>0.4194733571123663</v>
+        <v>0.3004915124430312</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007619105312573422</v>
+        <v>0.002443116366176452</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2191326576285491</v>
+        <v>0.5831867325581896</v>
       </c>
       <c r="J22">
-        <v>0.2552546967180689</v>
+        <v>0.1609542500661547</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.998676308435421</v>
+        <v>3.688859636345825</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.983845544482278</v>
+        <v>2.142128201073547</v>
       </c>
       <c r="C23">
-        <v>1.860883725477436</v>
+        <v>0.636498434135035</v>
       </c>
       <c r="D23">
-        <v>0.8874312804365161</v>
+        <v>0.7171427920265501</v>
       </c>
       <c r="E23">
-        <v>0.404370403131658</v>
+        <v>0.2974804777458715</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000764475951396314</v>
+        <v>0.002444538832258434</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.217614829105095</v>
+        <v>0.5869374089545119</v>
       </c>
       <c r="J23">
-        <v>0.2457331616589045</v>
+        <v>0.159008589100651</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.908305948288273</v>
+        <v>3.688334280430439</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.105452037229327</v>
+        <v>1.883747576195276</v>
       </c>
       <c r="C24">
-        <v>1.586584219562781</v>
+        <v>0.5568516892435582</v>
       </c>
       <c r="D24">
-        <v>0.7689143817934507</v>
+        <v>0.6940102529517276</v>
       </c>
       <c r="E24">
-        <v>0.3486727870582271</v>
+        <v>0.2863458204676803</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007743007910516236</v>
+        <v>0.002450132827660592</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2159910343833289</v>
+        <v>0.6021690163145976</v>
       </c>
       <c r="J24">
-        <v>0.2106288383977102</v>
+        <v>0.1517899592480347</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.592027898928649</v>
+        <v>3.69200971851572</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.170482674631728</v>
+        <v>1.604977188037424</v>
       </c>
       <c r="C25">
-        <v>1.29509905465909</v>
+        <v>0.4708910333923768</v>
       </c>
       <c r="D25">
-        <v>0.6467120154460986</v>
+        <v>0.6703916489883568</v>
       </c>
       <c r="E25">
-        <v>0.2912468780452357</v>
+        <v>0.2749078052675316</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007851795879623309</v>
+        <v>0.002456611524872976</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2218527803642587</v>
+        <v>0.6207732211878074</v>
       </c>
       <c r="J25">
-        <v>0.174441506614599</v>
+        <v>0.1443222433186975</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.298008381328373</v>
+        <v>3.707973653263366</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_122/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_122/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.399676619293871</v>
+        <v>3.489242252606459</v>
       </c>
       <c r="C2">
-        <v>0.4075566414707055</v>
+        <v>1.083008224686978</v>
       </c>
       <c r="D2">
-        <v>0.6541401328808547</v>
+        <v>0.5605518552380886</v>
       </c>
       <c r="E2">
-        <v>0.2669736999609782</v>
+        <v>0.2507462598338464</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002461768424108221</v>
+        <v>0.0007934765025764897</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6363252255562202</v>
+        <v>0.2316569260547432</v>
       </c>
       <c r="J2">
-        <v>0.1390942464946505</v>
+        <v>0.148912634923029</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.729941506039637</v>
+        <v>2.11462066476372</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.26052660375268</v>
+        <v>3.030469183246112</v>
       </c>
       <c r="C3">
-        <v>0.3646095372368734</v>
+        <v>0.9403082030066798</v>
       </c>
       <c r="D3">
-        <v>0.6438330498335176</v>
+        <v>0.5040904767677432</v>
       </c>
       <c r="E3">
-        <v>0.2618987202113203</v>
+        <v>0.2241919530577832</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002465506629911782</v>
+        <v>0.0007992983521333216</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6480131072965918</v>
+        <v>0.2412592921199384</v>
       </c>
       <c r="J3">
-        <v>0.1357181705338419</v>
+        <v>0.1321646805422532</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.751147857941021</v>
+        <v>2.007722878118756</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.175086224670792</v>
+        <v>2.749758650196213</v>
       </c>
       <c r="C4">
-        <v>0.3382288133309714</v>
+        <v>0.8530428147731186</v>
       </c>
       <c r="D4">
-        <v>0.6378521179113932</v>
+        <v>0.4702417676533628</v>
       </c>
       <c r="E4">
-        <v>0.2589310510746614</v>
+        <v>0.2082637192348784</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002467922622481407</v>
+        <v>0.0008029770975344989</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6557530636660367</v>
+        <v>0.2484753156981157</v>
       </c>
       <c r="J4">
-        <v>0.1337271187256519</v>
+        <v>0.1221121286553242</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.767268228403168</v>
+        <v>1.949693715577212</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.140269798261158</v>
+        <v>2.635552028808547</v>
       </c>
       <c r="C5">
-        <v>0.3274760849561176</v>
+        <v>0.817549205680308</v>
       </c>
       <c r="D5">
-        <v>0.6355022051663468</v>
+        <v>0.4566359106822517</v>
       </c>
       <c r="E5">
-        <v>0.257758965872533</v>
+        <v>0.2018586742335771</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.00246893761199455</v>
+        <v>0.0008045032102889951</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6590484421063927</v>
+        <v>0.2517285995928056</v>
       </c>
       <c r="J5">
-        <v>0.1329362869147914</v>
+        <v>0.1180679322948137</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.774614431604164</v>
+        <v>1.927825628994356</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.134488680230163</v>
+        <v>2.616597604172114</v>
       </c>
       <c r="C6">
-        <v>0.3256904716027407</v>
+        <v>0.8116590265398713</v>
       </c>
       <c r="D6">
-        <v>0.6351172790505757</v>
+        <v>0.454387502569034</v>
       </c>
       <c r="E6">
-        <v>0.2575665912613374</v>
+        <v>0.2008000610972971</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002469107992296347</v>
+        <v>0.0008047582734530354</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6596041578877738</v>
+        <v>0.2522871509849693</v>
       </c>
       <c r="J6">
-        <v>0.1328062089088036</v>
+        <v>0.1173993954973227</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.775881123207455</v>
+        <v>1.924298176880939</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.174616671011734</v>
+        <v>2.748217746826697</v>
       </c>
       <c r="C7">
-        <v>0.3380838073251766</v>
+        <v>0.8525638878722361</v>
       </c>
       <c r="D7">
-        <v>0.6378200724977887</v>
+        <v>0.4700575371080333</v>
       </c>
       <c r="E7">
-        <v>0.2589150931068147</v>
+        <v>0.208177002141035</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002467936187712909</v>
+        <v>0.0008029975688763069</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6557969348101835</v>
+        <v>0.2485179490892548</v>
       </c>
       <c r="J7">
-        <v>0.133716370198286</v>
+        <v>0.1220573827265099</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.76736415893518</v>
+        <v>1.9493917607264</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.351698986463305</v>
+        <v>3.330816184666787</v>
       </c>
       <c r="C8">
-        <v>0.3927509953437607</v>
+        <v>1.033718790524063</v>
       </c>
       <c r="D8">
-        <v>0.6505140546986183</v>
+        <v>0.5409027073203845</v>
       </c>
       <c r="E8">
-        <v>0.2651930164138321</v>
+        <v>0.2415067765361911</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002463032360705102</v>
+        <v>0.0007954627766389391</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6402379873128723</v>
+        <v>0.234681844348593</v>
       </c>
       <c r="J8">
-        <v>0.1379131514769867</v>
+        <v>0.1430864677188879</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.7366086894001</v>
+        <v>2.076100430601713</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.698889374491898</v>
+        <v>4.484090237766168</v>
       </c>
       <c r="C9">
-        <v>0.499853644865027</v>
+        <v>1.392815888310906</v>
       </c>
       <c r="D9">
-        <v>0.6781702113357539</v>
+        <v>0.6872187598189043</v>
       </c>
       <c r="E9">
-        <v>0.2786846683797251</v>
+        <v>0.3102829108896046</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002454369382985632</v>
+        <v>0.0007814733144708953</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6142172968937807</v>
+        <v>0.2189593702031054</v>
       </c>
       <c r="J9">
-        <v>0.1467955084937103</v>
+        <v>0.1864375238907527</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.701002531436671</v>
+        <v>2.391442683750341</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.953883920975272</v>
+        <v>5.342699806931478</v>
       </c>
       <c r="C10">
-        <v>0.5784735408537358</v>
+        <v>1.660626009913415</v>
       </c>
       <c r="D10">
-        <v>0.7001836413139699</v>
+        <v>0.800586229569177</v>
       </c>
       <c r="E10">
-        <v>0.2893227543046351</v>
+        <v>0.3635560381753749</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002448579685808364</v>
+        <v>0.0007716142653253834</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5978629068475456</v>
+        <v>0.2157783930499662</v>
       </c>
       <c r="J10">
-        <v>0.1537240103233302</v>
+        <v>0.2200080791261598</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.690062822983265</v>
+        <v>2.673782371551994</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.069861449971143</v>
+        <v>5.73693490253163</v>
       </c>
       <c r="C11">
-        <v>0.6142239390795794</v>
+        <v>1.783733821290298</v>
       </c>
       <c r="D11">
-        <v>0.7105684295805759</v>
+        <v>0.8537740432188343</v>
       </c>
       <c r="E11">
-        <v>0.2943212945246501</v>
+        <v>0.3885516647235292</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002446069327572506</v>
+        <v>0.0007672053073059514</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5910283331313693</v>
+        <v>0.2164991203077982</v>
       </c>
       <c r="J11">
-        <v>0.1569645082764879</v>
+        <v>0.235761765221028</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.68842568505039</v>
+        <v>2.815683030308719</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.113774977440073</v>
+        <v>5.886854453617389</v>
       </c>
       <c r="C12">
-        <v>0.627759394426846</v>
+        <v>1.83057342094844</v>
       </c>
       <c r="D12">
-        <v>0.7145543272207533</v>
+        <v>0.8741788486595965</v>
       </c>
       <c r="E12">
-        <v>0.2962370936087311</v>
+        <v>0.3981416593273437</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002445136364661621</v>
+        <v>0.0007655453189896738</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5885277410818475</v>
+        <v>0.2171164981507445</v>
       </c>
       <c r="J12">
-        <v>0.1582044268700287</v>
+        <v>0.2418066915692805</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.688288700299296</v>
+        <v>2.871582420757193</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.104317646272079</v>
+        <v>5.854536703957024</v>
       </c>
       <c r="C13">
-        <v>0.6248444069995571</v>
+        <v>1.820475192875506</v>
       </c>
       <c r="D13">
-        <v>0.7136935162746738</v>
+        <v>0.8697720452729243</v>
       </c>
       <c r="E13">
-        <v>0.2958234697861144</v>
+        <v>0.3960704771848071</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002445336511143426</v>
+        <v>0.0007659024233993161</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5890623882384531</v>
+        <v>0.2169676577644744</v>
       </c>
       <c r="J13">
-        <v>0.1579368174321019</v>
+        <v>0.2405011087530795</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.688296678358313</v>
+        <v>2.859443312261931</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.07347434479874</v>
+        <v>5.74925557268125</v>
       </c>
       <c r="C14">
-        <v>0.6153375604117741</v>
+        <v>1.787582679037541</v>
       </c>
       <c r="D14">
-        <v>0.7108952809753362</v>
+        <v>0.8554472821855938</v>
       </c>
       <c r="E14">
-        <v>0.2944784479332228</v>
+        <v>0.3893380474683639</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002445992218869653</v>
+        <v>0.0007670685550656722</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5908208511816326</v>
+        <v>0.2165428095068549</v>
       </c>
       <c r="J14">
-        <v>0.1570662600047115</v>
+        <v>0.2362574336040808</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.688404720056269</v>
+        <v>2.820237127675597</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.054581278374314</v>
+        <v>5.684853401221289</v>
       </c>
       <c r="C15">
-        <v>0.6095140121768736</v>
+        <v>1.767465066675754</v>
       </c>
       <c r="D15">
-        <v>0.7091882384500821</v>
+        <v>0.8467082820897929</v>
       </c>
       <c r="E15">
-        <v>0.2936575752710908</v>
+        <v>0.3852309572760575</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002446396155413798</v>
+        <v>0.0007677840510993544</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5919093720213624</v>
+        <v>0.2163284643693117</v>
       </c>
       <c r="J15">
-        <v>0.1565346887611128</v>
+        <v>0.2336687084200264</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.688533877039362</v>
+        <v>2.796511309472265</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.946303956193674</v>
+        <v>5.317017905885734</v>
       </c>
       <c r="C16">
-        <v>0.5761368479782618</v>
+        <v>1.652609475768145</v>
       </c>
       <c r="D16">
-        <v>0.6995124392092578</v>
+        <v>0.7971454090863972</v>
       </c>
       <c r="E16">
-        <v>0.288999297373401</v>
+        <v>0.3619391004255732</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002448746219020624</v>
+        <v>0.000771903818561781</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5983217813445911</v>
+        <v>0.2157776360707935</v>
       </c>
       <c r="J16">
-        <v>0.1535140258216074</v>
+        <v>0.2189890738485758</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.690237246899756</v>
+        <v>2.664798759365027</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.879872815707529</v>
+        <v>5.092369804020564</v>
       </c>
       <c r="C17">
-        <v>0.5556571143546876</v>
+        <v>1.58250236997327</v>
       </c>
       <c r="D17">
-        <v>0.6936716738712789</v>
+        <v>0.7671754578767036</v>
       </c>
       <c r="E17">
-        <v>0.2861824206812287</v>
+        <v>0.3478556434305204</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002450219449664941</v>
+        <v>0.0007744497099954567</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6024109258823209</v>
+        <v>0.2160172067409896</v>
       </c>
       <c r="J17">
-        <v>0.1516837038094678</v>
+        <v>0.2101139009274959</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.692139470671805</v>
+        <v>2.587601044138694</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.84166152293551</v>
+        <v>4.963494648585538</v>
       </c>
       <c r="C18">
-        <v>0.5438764014990056</v>
+        <v>1.54229660367281</v>
       </c>
       <c r="D18">
-        <v>0.6903471131984702</v>
+        <v>0.75008762072531</v>
       </c>
       <c r="E18">
-        <v>0.2845772104586501</v>
+        <v>0.3398258800517269</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.00245107843351855</v>
+        <v>0.0007759212775493296</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6048198206371076</v>
+        <v>0.2163568975344106</v>
       </c>
       <c r="J18">
-        <v>0.150639295117827</v>
+        <v>0.2050538720549042</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.693547732857922</v>
+        <v>2.544451143092942</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.828723567777274</v>
+        <v>4.919914458876747</v>
       </c>
       <c r="C19">
-        <v>0.5398874417343222</v>
+        <v>1.528702812741699</v>
       </c>
       <c r="D19">
-        <v>0.689227464375989</v>
+        <v>0.744326848264933</v>
       </c>
       <c r="E19">
-        <v>0.2840362852163665</v>
+        <v>0.3371188397848286</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002451371269509389</v>
+        <v>0.0007764208068559863</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6056451931547713</v>
+        <v>0.2165056425294303</v>
       </c>
       <c r="J19">
-        <v>0.1502871076017556</v>
+        <v>0.2033480290228908</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.69407841835627</v>
+        <v>2.530049798977302</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.886944728419166</v>
+        <v>5.116248415629059</v>
       </c>
       <c r="C20">
-        <v>0.557837355686388</v>
+        <v>1.589952922071291</v>
       </c>
       <c r="D20">
-        <v>0.6942898213881392</v>
+        <v>0.7703500605126123</v>
       </c>
       <c r="E20">
-        <v>0.2864807308942474</v>
+        <v>0.3493474324433379</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002450061419689365</v>
+        <v>0.0007741779556242614</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6019697341358992</v>
+        <v>0.2159705819275715</v>
       </c>
       <c r="J20">
-        <v>0.1518776807023841</v>
+        <v>0.2110539791832622</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.691904441992079</v>
+        <v>2.595687694059166</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.082533909237554</v>
+        <v>5.780161156061695</v>
       </c>
       <c r="C21">
-        <v>0.618130021226591</v>
+        <v>1.797237682851289</v>
       </c>
       <c r="D21">
-        <v>0.7117157404384784</v>
+        <v>0.8596473888431717</v>
       </c>
       <c r="E21">
-        <v>0.2948728897957693</v>
+        <v>0.3913120119362787</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002445799143237719</v>
+        <v>0.0007667257849477672</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5903019689511027</v>
+        <v>0.2166579717766339</v>
       </c>
       <c r="J21">
-        <v>0.1573216156240989</v>
+        <v>0.2375016653663096</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.688359856018621</v>
+        <v>2.831692243473697</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.210334920035336</v>
+        <v>6.217803767227053</v>
       </c>
       <c r="C22">
-        <v>0.657520333809714</v>
+        <v>1.934020745355383</v>
       </c>
       <c r="D22">
-        <v>0.7234159064425398</v>
+        <v>0.9195625776754923</v>
       </c>
       <c r="E22">
-        <v>0.3004915124430312</v>
+        <v>0.4194733571123663</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002443116366176452</v>
+        <v>0.000761910531221149</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5831867325581896</v>
+        <v>0.2191326576285633</v>
       </c>
       <c r="J22">
-        <v>0.1609542500661547</v>
+        <v>0.2552546967181115</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.688859636345825</v>
+        <v>2.998676308435449</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.142128201073547</v>
+        <v>5.983845544482108</v>
       </c>
       <c r="C23">
-        <v>0.636498434135035</v>
+        <v>1.860883725477379</v>
       </c>
       <c r="D23">
-        <v>0.7171427920265501</v>
+        <v>0.887431280436374</v>
       </c>
       <c r="E23">
-        <v>0.2974804777458715</v>
+        <v>0.4043704031316651</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002444538832258434</v>
+        <v>0.0007644759513670275</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5869374089545119</v>
+        <v>0.217614829105095</v>
       </c>
       <c r="J23">
-        <v>0.159008589100651</v>
+        <v>0.245733161658876</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.688334280430439</v>
+        <v>2.908305948288273</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.883747576195276</v>
+        <v>5.105452037229441</v>
       </c>
       <c r="C24">
-        <v>0.5568516892435582</v>
+        <v>1.58658421956261</v>
       </c>
       <c r="D24">
-        <v>0.6940102529517276</v>
+        <v>0.768914381793536</v>
       </c>
       <c r="E24">
-        <v>0.2863458204676803</v>
+        <v>0.3486727870582413</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002450132827660592</v>
+        <v>0.0007743007910809349</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6021690163145976</v>
+        <v>0.215991034383336</v>
       </c>
       <c r="J24">
-        <v>0.1517899592480347</v>
+        <v>0.2106288383977244</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.69200971851572</v>
+        <v>2.592027898928677</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.604977188037424</v>
+        <v>4.170482674631671</v>
       </c>
       <c r="C25">
-        <v>0.4708910333923768</v>
+        <v>1.29509905465909</v>
       </c>
       <c r="D25">
-        <v>0.6703916489883568</v>
+        <v>0.6467120154460417</v>
       </c>
       <c r="E25">
-        <v>0.2749078052675316</v>
+        <v>0.2912468780452642</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002456611524872976</v>
+        <v>0.0007851795880197132</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6207732211878074</v>
+        <v>0.2218527803642516</v>
       </c>
       <c r="J25">
-        <v>0.1443222433186975</v>
+        <v>0.1744415066145777</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.707973653263366</v>
+        <v>2.298008381328373</v>
       </c>
     </row>
   </sheetData>
